--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="182">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cruzeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa do Brasil - Round 4 – Second leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-01 20:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -569,7 +578,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -590,6 +599,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -634,7 +648,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -644,6 +658,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -664,13 +682,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1614,6 +1632,32 @@
         <v>45073.7708333333</v>
       </c>
       <c r="H36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1633,13 +1677,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1651,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,10 +1706,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,10 +1717,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,10 +1728,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,10 +1739,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,10 +1750,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,10 +1761,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,10 +1772,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,10 +1783,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,10 +1794,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,10 +1805,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,10 +1816,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,10 +1827,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,10 +1838,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,10 +1849,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,10 +1860,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,10 +1871,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1882,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,10 +1893,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,10 +1904,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,10 +1915,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,10 +1926,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,10 +1937,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,10 +1948,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +1959,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,10 +1970,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,10 +1981,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,10 +1992,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,10 +2003,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +2014,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,10 +2025,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,10 +2036,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,10 +2047,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,10 +2058,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,10 +2069,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,10 +2080,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,10 +2091,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,10 +2102,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,10 +2113,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,10 +2124,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,10 +2135,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2146,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,10 +2157,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,10 +2168,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,10 +2179,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,10 +2190,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,10 +2201,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,10 +2212,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,10 +2223,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,10 +2234,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,10 +2245,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,10 +2256,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,10 +2267,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,10 +2278,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2289,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,10 +2300,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,10 +2311,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,10 +2322,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,10 +2333,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,10 +2344,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,10 +2355,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,10 +2366,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,10 +2377,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2388,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2399,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,10 +2410,32 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="185">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -480,6 +480,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-06-01 20:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-05 20:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -578,7 +587,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -599,11 +608,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -661,7 +665,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,13 +686,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1658,6 +1662,32 @@
         <v>152</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1677,13 +1707,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1695,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,10 +1736,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,10 +1747,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,10 +1758,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,10 +1769,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,10 +1780,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,10 +1791,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,10 +1802,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,10 +1813,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,10 +1824,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,21 +1835,21 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,10 +1857,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1868,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,10 +1879,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,10 +1890,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,10 +1901,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,10 +1912,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,10 +1923,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,10 +1934,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +1945,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,10 +1956,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,10 +1967,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,10 +1978,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,10 +1989,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +2000,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,10 +2011,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,10 +2022,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,10 +2033,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,10 +2044,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,10 +2055,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,10 +2066,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,10 +2077,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,10 +2088,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,10 +2099,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,10 +2110,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,10 +2121,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2132,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,10 +2143,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,10 +2154,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,10 +2165,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,10 +2176,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,10 +2187,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,10 +2198,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,10 +2209,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,10 +2220,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,10 +2231,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,10 +2242,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,10 +2253,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,10 +2264,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2275,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,10 +2286,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,10 +2297,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,10 +2308,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,10 +2319,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,10 +2330,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,10 +2341,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,10 +2352,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,10 +2363,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2374,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2385,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,10 +2396,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,10 +2407,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,10 +2418,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,10 +2429,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,10 +2440,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,10 +2451,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,10 +2462,54 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C68" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="188">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-06-05 20:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa Libertadores da América - Round 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-08 21:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -686,13 +695,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="A73:C74 A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1688,6 +1697,32 @@
         <v>155</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1707,13 +1742,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1725,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,10 +1771,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,10 +1782,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,10 +1793,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,10 +1804,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,10 +1815,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,10 +1826,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,10 +1837,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,10 +1848,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,10 +1859,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,10 +1870,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,10 +1881,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,10 +1892,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,10 +1903,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,10 +1914,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,10 +1925,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,10 +1936,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,10 +1947,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,10 +1958,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,10 +1969,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,10 +1980,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,10 +1991,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,10 +2002,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,10 +2013,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +2024,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,10 +2035,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,10 +2046,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,10 +2057,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,10 +2068,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,10 +2079,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,10 +2090,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2101,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,10 +2112,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2123,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,10 +2134,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,10 +2145,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,10 +2156,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,10 +2167,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,10 +2178,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,10 +2189,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,10 +2200,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,10 +2211,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,10 +2222,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,10 +2233,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,10 +2244,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2255,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2266,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,10 +2277,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,10 +2288,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,10 +2299,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,10 +2310,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,10 +2321,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,10 +2332,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,10 +2343,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,10 +2354,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,10 +2365,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2376,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,10 +2387,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,10 +2398,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,10 +2409,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,10 +2420,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,10 +2431,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,10 +2442,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,10 +2453,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,10 +2464,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,10 +2475,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,10 +2486,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,10 +2497,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,10 +2508,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,10 +2519,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,10 +2530,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,10 +2541,32 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="193">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -500,6 +500,18 @@
     <t xml:space="preserve">2023-06-08 21:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">BR10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grêmio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-11 18:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">gols</t>
   </si>
   <si>
@@ -585,6 +597,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wesley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Henrique</t>
   </si>
 </sst>
 </file>
@@ -695,13 +710,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="1" sqref="A73:C74 A39"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1723,6 +1738,32 @@
         <v>158</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1742,13 +1783,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:C74"/>
+      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1760,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,10 +1812,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,10 +1823,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,10 +1834,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,10 +1845,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,10 +1856,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,10 +1867,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,10 +1878,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,10 +1889,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,10 +1900,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +1911,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +1922,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,10 +1933,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,10 +1944,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,10 +1955,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,10 +1966,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,10 +1977,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,10 +1988,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,10 +1999,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,10 +2010,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,10 +2021,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,10 +2032,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,10 +2043,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,10 +2054,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,10 +2065,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,10 +2076,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,10 +2087,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,10 +2098,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,10 +2109,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,10 +2120,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,10 +2131,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,10 +2142,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,10 +2153,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,10 +2164,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,10 +2175,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,10 +2186,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,10 +2197,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,10 +2208,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,10 +2219,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,10 +2230,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,10 +2241,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,10 +2252,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,10 +2263,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,10 +2274,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,10 +2285,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,10 +2296,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,10 +2307,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,10 +2318,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,10 +2329,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,10 +2340,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,10 +2351,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,10 +2362,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,10 +2373,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,10 +2384,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,10 +2395,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,10 +2406,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2417,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,10 +2428,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,10 +2439,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,10 +2450,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,10 +2461,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,10 +2472,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,10 +2483,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,10 +2494,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,10 +2505,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,10 +2516,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,10 +2527,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2538,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,10 +2549,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,10 +2560,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,10 +2571,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,10 +2582,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,10 +2593,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,10 +2604,43 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="203">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -510,6 +510,36 @@
   </si>
   <si>
     <t xml:space="preserve">2023-06-11 18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bragantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-22 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabi Abi Chebid-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-25 18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vila Belmiro-SP</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -710,13 +740,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1765,6 +1795,58 @@
       </c>
       <c r="H40" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1783,13 +1865,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1801,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,10 +1894,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,10 +1905,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,10 +1916,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,10 +1927,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,10 +1938,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,10 +1949,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,10 +1960,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,10 +1971,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,10 +1982,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,10 +1993,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,10 +2004,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,10 +2015,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,10 +2026,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,10 +2037,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,10 +2048,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,10 +2059,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,10 +2070,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,10 +2081,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,10 +2092,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,10 +2103,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,10 +2114,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,10 +2125,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,10 +2136,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,10 +2147,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,10 +2158,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,10 +2169,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,10 +2180,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,10 +2191,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,10 +2202,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,10 +2213,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,10 +2224,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,10 +2235,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,10 +2246,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,10 +2257,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,10 +2268,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,10 +2279,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,10 +2290,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,10 +2301,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,10 +2312,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,10 +2323,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,10 +2334,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,10 +2345,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,10 +2356,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,10 +2367,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,10 +2378,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,10 +2389,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,10 +2400,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,10 +2411,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,10 +2422,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,10 +2433,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,10 +2444,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,10 +2455,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,10 +2466,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2477,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,10 +2488,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,10 +2499,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,10 +2510,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,10 +2521,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,10 +2532,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,10 +2543,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,10 +2554,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,10 +2565,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,10 +2576,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,10 +2587,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,10 +2598,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,10 +2609,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,10 +2620,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,10 +2631,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,10 +2642,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,10 +2653,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,10 +2664,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,10 +2675,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,10 +2686,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,10 +2697,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,10 +2708,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,10 +2719,43 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C77" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="206">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -540,6 +540,15 @@
   </si>
   <si>
     <t xml:space="preserve">Vila Belmiro-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa Libertadores da América - Round 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-29 21:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -740,13 +749,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1847,6 +1856,32 @@
       </c>
       <c r="H42" s="0" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1865,13 +1900,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1883,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,10 +1929,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,10 +1940,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,10 +1951,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,10 +1962,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,10 +1973,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,10 +1984,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,10 +1995,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,10 +2006,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,10 +2017,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,10 +2028,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,10 +2039,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,10 +2050,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,10 +2061,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,10 +2072,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,10 +2083,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,10 +2094,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,10 +2105,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,10 +2116,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,10 +2127,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,10 +2138,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,10 +2149,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,10 +2160,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,10 +2171,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,10 +2182,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,10 +2193,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,10 +2204,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,10 +2215,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,10 +2226,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,10 +2237,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,10 +2248,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,10 +2259,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,10 +2270,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,10 +2281,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,10 +2292,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,10 +2303,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,10 +2314,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,10 +2325,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,10 +2336,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,10 +2347,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,10 +2358,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,10 +2369,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,10 +2380,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,10 +2391,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,10 +2402,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,10 +2413,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,10 +2424,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,10 +2435,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,10 +2446,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,10 +2457,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,10 +2468,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,10 +2479,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,10 +2490,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,10 +2501,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,10 +2512,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,10 +2523,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,10 +2534,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,10 +2545,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,10 +2556,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,10 +2567,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,10 +2578,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,10 +2589,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2600,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,10 +2611,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,10 +2622,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,10 +2633,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,10 +2644,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,10 +2655,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,10 +2666,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,10 +2677,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,10 +2688,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,10 +2699,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,10 +2710,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,10 +2721,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,10 +2732,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,10 +2743,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,10 +2754,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,10 +2765,10 @@
         <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,10 +2776,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,10 +2787,54 @@
         <v>168</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="210">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -549,6 +549,18 @@
   </si>
   <si>
     <t xml:space="preserve">2023-06-29 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortaleza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-01 18:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -749,13 +761,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1881,6 +1893,32 @@
         <v>175</v>
       </c>
       <c r="H43" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1900,13 +1938,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1918,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,10 +1967,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,10 +1978,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,10 +1989,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,10 +2000,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,10 +2011,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,10 +2022,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,10 +2033,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,10 +2044,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,10 +2055,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,10 +2066,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,10 +2077,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,10 +2088,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,10 +2099,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,10 +2110,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,10 +2121,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,10 +2132,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,10 +2143,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,10 +2154,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,10 +2165,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,10 +2176,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,10 +2187,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,10 +2198,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,10 +2209,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,10 +2220,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,10 +2231,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,10 +2242,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,10 +2253,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,10 +2264,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,10 +2275,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,10 +2286,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,10 +2297,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,10 +2308,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,10 +2319,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,10 +2330,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,10 +2341,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,10 +2352,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,10 +2363,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,10 +2374,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,10 +2385,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,10 +2396,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,10 +2407,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,10 +2418,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,10 +2429,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,10 +2440,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,10 +2451,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,10 +2462,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,10 +2473,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,10 +2484,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,10 +2495,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,10 +2506,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,10 +2517,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,10 +2528,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,10 +2539,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,10 +2550,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,10 +2561,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,10 +2572,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,10 +2583,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,10 +2594,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,10 +2605,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,10 +2616,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,10 +2627,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,10 +2638,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,10 +2649,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,10 +2660,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +2671,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,10 +2682,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,10 +2693,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,10 +2704,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,10 +2715,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,10 +2726,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,10 +2737,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,10 +2748,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,10 +2759,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,10 +2770,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,10 +2781,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,10 +2792,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,10 +2803,10 @@
         <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,10 +2814,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,10 +2825,10 @@
         <v>168</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,10 +2836,10 @@
         <v>173</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,10 +2847,10 @@
         <v>173</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,10 +2858,10 @@
         <v>173</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,10 +2869,32 @@
         <v>173</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="217">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -561,6 +561,27 @@
   </si>
   <si>
     <t xml:space="preserve">2023-07-01 18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa do Brasil – Quarterfinal – First leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-05 21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-08 21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allianz Arena-SP</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -761,13 +782,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1920,6 +1941,58 @@
       </c>
       <c r="H44" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1938,13 +2011,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -1956,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,10 +2051,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +2062,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,10 +2073,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,10 +2084,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,10 +2095,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,10 +2106,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,10 +2117,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,10 +2128,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2139,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,10 +2150,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2161,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,10 +2172,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,10 +2183,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,10 +2194,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,10 +2205,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,10 +2216,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,10 +2227,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,10 +2238,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,10 +2249,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,10 +2260,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,10 +2271,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,10 +2282,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2293,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2304,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,10 +2315,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,10 +2326,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,10 +2337,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,10 +2348,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,10 +2359,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,10 +2370,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,10 +2381,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,10 +2392,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,10 +2403,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2414,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,10 +2425,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,10 +2436,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,10 +2447,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,10 +2458,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,10 +2469,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,10 +2480,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,10 +2491,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,10 +2502,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,10 +2513,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,10 +2524,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,10 +2535,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,10 +2546,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,10 +2557,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,10 +2568,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,10 +2579,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,10 +2590,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,10 +2601,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,10 +2612,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,10 +2623,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,10 +2634,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,10 +2645,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,10 +2656,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,10 +2667,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,10 +2678,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,10 +2689,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,10 +2700,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,10 +2711,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,10 +2722,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,10 +2733,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,10 +2744,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,10 +2755,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,10 +2766,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,10 +2777,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,10 +2788,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,10 +2799,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,10 +2810,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,10 +2821,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,10 +2832,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,10 +2843,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,10 +2854,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,10 +2865,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,10 +2876,10 @@
         <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,10 +2887,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,10 +2898,10 @@
         <v>168</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,10 +2909,10 @@
         <v>173</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,10 +2920,10 @@
         <v>173</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,10 +2931,10 @@
         <v>173</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,10 +2942,10 @@
         <v>173</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +2953,10 @@
         <v>176</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,10 +2964,43 @@
         <v>176</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="221">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -584,6 +584,15 @@
     <t xml:space="preserve">Allianz Arena-SP</t>
   </si>
   <si>
+    <t xml:space="preserve">CB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa do Brasil – Quarterfinal – Second leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-13 21:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">gols</t>
   </si>
   <si>
@@ -672,6 +681,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bruno Henrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Goal</t>
   </si>
 </sst>
 </file>
@@ -782,13 +794,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1993,6 +2005,32 @@
       </c>
       <c r="H46" s="0" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2011,13 +2049,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2029,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,10 +2078,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,10 +2089,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,10 +2100,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,10 +2111,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,10 +2122,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,10 +2133,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,10 +2144,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,10 +2155,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,10 +2166,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,10 +2177,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,10 +2188,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,10 +2199,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,10 +2210,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,10 +2221,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,10 +2232,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,10 +2243,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,10 +2254,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,10 +2265,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,10 +2276,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,10 +2287,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,10 +2298,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,10 +2309,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2282,10 +2320,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,10 +2331,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,10 +2342,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,10 +2353,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,10 +2364,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,10 +2375,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,10 +2386,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,10 +2397,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,10 +2408,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,10 +2419,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,10 +2430,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,10 +2441,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,10 +2452,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,10 +2463,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,10 +2474,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +2485,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,10 +2496,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,10 +2507,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,10 +2518,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,10 +2529,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,10 +2540,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,10 +2551,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,10 +2562,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,10 +2573,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,10 +2584,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,10 +2595,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,10 +2606,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,10 +2617,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,10 +2628,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,10 +2639,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,10 +2650,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,10 +2661,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,10 +2672,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,10 +2683,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,10 +2694,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,10 +2705,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,10 +2716,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,10 +2727,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,10 +2738,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,10 +2749,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,10 +2760,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,10 +2771,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,10 +2782,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,10 +2793,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,10 +2804,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,10 +2815,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,10 +2826,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,10 +2837,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,10 +2848,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,10 +2859,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,10 +2870,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,10 +2881,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,10 +2892,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,10 +2903,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,10 +2914,10 @@
         <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,10 +2925,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,10 +2936,10 @@
         <v>168</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,10 +2947,10 @@
         <v>173</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,10 +2958,10 @@
         <v>173</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,10 +2969,10 @@
         <v>173</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,10 +2980,10 @@
         <v>173</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,10 +2991,10 @@
         <v>176</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,10 +3002,10 @@
         <v>176</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,10 +3013,10 @@
         <v>180</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,10 +3024,10 @@
         <v>180</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,10 +3035,32 @@
         <v>183</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="224">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-07-13 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-16 16:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -794,13 +803,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="48:48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2031,6 +2040,32 @@
       </c>
       <c r="H47" s="0" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2052,10 +2087,10 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+      <selection pane="topLeft" activeCell="A91" activeCellId="1" sqref="48:48 A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2067,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,10 +2113,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,10 +2124,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,10 +2135,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,10 +2146,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,10 +2157,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,10 +2168,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,10 +2179,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,10 +2190,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,10 +2201,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,10 +2212,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,10 +2223,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,10 +2234,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,10 +2245,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,10 +2256,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,10 +2267,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,10 +2278,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,10 +2289,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,10 +2300,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,10 +2311,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,10 +2322,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,10 +2333,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,10 +2344,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,10 +2355,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,10 +2366,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,10 +2377,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,10 +2388,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,10 +2399,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,10 +2410,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,10 +2421,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,10 +2432,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,10 +2443,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,10 +2454,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,10 +2465,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,10 +2476,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,10 +2487,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,10 +2498,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,10 +2509,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,10 +2520,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,10 +2531,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,10 +2542,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,10 +2553,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,10 +2564,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,10 +2575,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,10 +2586,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,10 +2597,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,10 +2608,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,10 +2619,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,10 +2630,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,10 +2641,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,10 +2652,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,10 +2663,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,10 +2674,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,10 +2685,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,10 +2696,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,10 +2707,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,10 +2718,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,10 +2729,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,10 +2740,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,10 +2751,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,10 +2762,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,10 +2773,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,10 +2784,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,10 +2795,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,10 +2806,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,10 +2817,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,10 +2828,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,10 +2839,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,10 +2850,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,10 +2861,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,10 +2872,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,10 +2883,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,10 +2894,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,10 +2905,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,10 +2916,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,10 +2927,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,10 +2938,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,10 +2949,10 @@
         <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,10 +2960,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +2971,10 @@
         <v>168</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,10 +2982,10 @@
         <v>173</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,10 +2993,10 @@
         <v>173</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,10 +3004,10 @@
         <v>173</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,10 +3015,10 @@
         <v>173</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,10 +3026,10 @@
         <v>176</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,10 +3037,10 @@
         <v>176</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,10 +3048,10 @@
         <v>180</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,10 +3059,10 @@
         <v>180</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,10 +3070,10 @@
         <v>183</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,10 +3081,10 @@
         <v>187</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,10 +3092,10 @@
         <v>187</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="233">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -600,6 +600,33 @@
   </si>
   <si>
     <t xml:space="preserve">2023-07-16 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">América Mineiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-22 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macaranã-RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa do Brasil – Semifinal - First leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-27 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arena do Grêmio-RS</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -803,13 +830,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="48:48"/>
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="50:50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2066,6 +2093,58 @@
       </c>
       <c r="H48" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2084,13 +2163,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A91" activeCellId="1" sqref="48:48 A91"/>
+      <selection pane="topLeft" activeCell="A93" activeCellId="1" sqref="50:50 A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2102,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,10 +2192,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,10 +2203,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,10 +2214,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,10 +2225,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,10 +2236,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,10 +2247,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,10 +2258,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,10 +2269,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,10 +2280,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,10 +2291,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,10 +2302,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,10 +2313,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2324,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,10 +2335,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,10 +2346,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,10 +2357,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,10 +2368,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,10 +2379,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,10 +2390,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,10 +2412,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2423,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2434,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,10 +2445,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,10 +2456,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,10 +2467,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,10 +2478,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,10 +2489,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,10 +2500,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,10 +2511,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,10 +2522,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,10 +2533,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,10 +2544,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,10 +2555,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,10 +2566,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,10 +2577,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,10 +2588,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,10 +2599,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,10 +2610,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2621,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,10 +2632,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,10 +2643,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,10 +2654,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,10 +2665,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,10 +2676,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,10 +2687,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,10 +2698,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,10 +2709,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,10 +2720,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,10 +2731,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2742,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,10 +2753,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,10 +2764,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,10 +2775,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,10 +2786,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,10 +2797,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,10 +2808,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,10 +2819,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,10 +2830,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,10 +2841,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,10 +2852,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +2863,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,10 +2874,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2885,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,10 +2896,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2907,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2918,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,10 +2929,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,10 +2940,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,10 +2951,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,10 +2962,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,10 +2973,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,10 +2984,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,10 +2995,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,10 +3006,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,10 +3017,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,10 +3028,10 @@
         <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,10 +3039,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,10 +3050,10 @@
         <v>168</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,10 +3061,10 @@
         <v>173</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +3072,10 @@
         <v>173</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3083,10 @@
         <v>173</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +3094,10 @@
         <v>173</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,10 +3105,10 @@
         <v>176</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,10 +3116,10 @@
         <v>176</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3127,10 @@
         <v>180</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3138,10 @@
         <v>180</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +3149,10 @@
         <v>183</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,10 +3160,10 @@
         <v>187</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3171,43 @@
         <v>187</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="238">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -627,6 +627,21 @@
   </si>
   <si>
     <t xml:space="preserve">Arena do Grêmio-RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlético Mineiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-29 21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independêcia-MG</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -830,13 +845,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="50:50"/>
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="51:51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2145,6 +2160,32 @@
       </c>
       <c r="H50" s="0" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2163,13 +2204,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A93" activeCellId="1" sqref="50:50 A93"/>
+      <selection pane="topLeft" activeCell="A95" activeCellId="1" sqref="51:51 A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2181,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,10 +2233,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,10 +2244,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,10 +2255,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,10 +2266,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,10 +2277,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,10 +2288,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,10 +2299,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,10 +2310,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,10 +2321,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,10 +2332,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,10 +2343,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,10 +2354,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,10 +2365,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,10 +2376,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,10 +2387,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,10 +2398,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,10 +2409,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +2420,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +2431,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,10 +2442,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,10 +2453,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,10 +2464,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,10 +2475,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,10 +2486,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,10 +2497,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +2508,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,10 +2519,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,10 +2530,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,10 +2541,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2552,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,10 +2563,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,10 +2574,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,10 +2585,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,10 +2596,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,10 +2607,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,10 +2629,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +2640,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,10 +2651,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,10 +2662,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,10 +2673,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,10 +2684,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +2695,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,10 +2706,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,10 +2717,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,10 +2728,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +2739,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,10 +2750,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +2761,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,10 +2772,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,10 +2783,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,10 +2794,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,10 +2805,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,10 +2816,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,10 +2827,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,10 +2838,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,10 +2849,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,10 +2860,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,10 +2871,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,10 +2882,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,10 +2893,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +2904,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,10 +2915,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,10 +2926,10 @@
         <v>145</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,10 +2937,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,10 +2948,10 @@
         <v>150</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,10 +2959,10 @@
         <v>150</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,10 +2970,10 @@
         <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,10 +2981,10 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,10 +2992,10 @@
         <v>153</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +3003,10 @@
         <v>153</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,10 +3014,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,10 +3025,10 @@
         <v>156</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,10 +3036,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,10 +3047,10 @@
         <v>159</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,10 +3058,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,10 +3069,10 @@
         <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,10 +3080,10 @@
         <v>168</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,10 +3091,10 @@
         <v>168</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,10 +3102,10 @@
         <v>173</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,10 +3113,10 @@
         <v>173</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,10 +3124,10 @@
         <v>173</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,10 +3135,10 @@
         <v>173</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,10 +3146,10 @@
         <v>176</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,10 +3157,10 @@
         <v>176</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,10 +3168,10 @@
         <v>180</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,10 +3179,10 @@
         <v>180</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,10 +3190,10 @@
         <v>183</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,10 +3201,10 @@
         <v>187</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,10 +3212,10 @@
         <v>187</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,10 +3223,10 @@
         <v>193</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3193,10 +3234,10 @@
         <v>198</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,10 +3245,32 @@
         <v>198</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="246">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">CB3</t>
   </si>
   <si>
-    <t xml:space="preserve">Copa do Brasil - Round 4 - First leg</t>
+    <t xml:space="preserve">Copa do Brasil - Round of 16  - First leg</t>
   </si>
   <si>
     <t xml:space="preserve">2023-05-16 21:00:00</t>
@@ -458,12 +458,18 @@
     <t xml:space="preserve">Campeonato Brasileiro - Round 7</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-21 16:00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIB4</t>
   </si>
   <si>
     <t xml:space="preserve">Copa Libertadores da América - Round 4</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-05-24 21:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Municipal de Collao-Chile</t>
   </si>
   <si>
@@ -473,10 +479,16 @@
     <t xml:space="preserve">Cruzeiro</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-27 18:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">CB4</t>
   </si>
   <si>
-    <t xml:space="preserve">Copa do Brasil - Round 4 – Second leg</t>
+    <t xml:space="preserve">Copa do Brasil - Round of 16  - Second leg</t>
   </si>
   <si>
     <t xml:space="preserve">2023-06-01 20:00:00</t>
@@ -566,10 +578,10 @@
     <t xml:space="preserve">CB5</t>
   </si>
   <si>
-    <t xml:space="preserve">Copa do Brasil – Quarterfinal – First leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-05 21:00:00</t>
+    <t xml:space="preserve">Copa do Brasil - Quarterfinal - First leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-05 21:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">BR14</t>
@@ -587,7 +599,7 @@
     <t xml:space="preserve">CB6</t>
   </si>
   <si>
-    <t xml:space="preserve">Copa do Brasil – Quarterfinal – Second leg</t>
+    <t xml:space="preserve">Copa do Brasil - Quarterfinal - Second leg</t>
   </si>
   <si>
     <t xml:space="preserve">2023-07-13 21:30:00</t>
@@ -642,6 +654,18 @@
   </si>
   <si>
     <t xml:space="preserve">Independêcia-MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olimpia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa Libertadores da América - Round of 16  - First leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-04 21:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -741,10 +765,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -811,16 +834,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,13 +864,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="51:51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -1739,8 +1758,8 @@
       <c r="F34" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>45067.6666666667</v>
+      <c r="G34" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>13</v>
@@ -1748,7 +1767,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>106</v>
@@ -1763,24 +1782,24 @@
         <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>45070.8958333333</v>
+        <v>147</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -1789,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>45073.7708333333</v>
+        <v>152</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>13</v>
@@ -1800,9 +1819,9 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -1815,99 +1834,99 @@
         <v>0</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3" t="n">
+      <c r="C38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>154</v>
+      <c r="F38" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>157</v>
+      <c r="F39" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="3" t="n">
+      <c r="A40" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>161</v>
+      <c r="F40" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>9</v>
@@ -1919,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>9</v>
@@ -1944,19 +1963,19 @@
       <c r="E42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>170</v>
+      <c r="F42" s="0" t="s">
+        <v>174</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>9</v>
@@ -1971,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>13</v>
@@ -1982,13 +2001,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>2</v>
@@ -1997,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>13</v>
@@ -2008,7 +2027,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>9</v>
@@ -2023,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>13</v>
@@ -2034,7 +2053,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>33</v>
@@ -2049,18 +2068,18 @@
         <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>126</v>
@@ -2075,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>129</v>
@@ -2086,7 +2105,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>76</v>
@@ -2101,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>13</v>
@@ -2112,13 +2131,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -2127,21 +2146,21 @@
         <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>9</v>
@@ -2153,21 +2172,21 @@
         <v>2</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>9</v>
@@ -2179,13 +2198,39 @@
         <v>2</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2204,13 +2249,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="1" sqref="51:51 A95"/>
+      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2222,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,10 +2278,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,10 +2289,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,10 +2300,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,10 +2311,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,10 +2322,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,10 +2333,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,10 +2344,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,10 +2355,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,10 +2366,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,10 +2377,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,10 +2388,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,10 +2399,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,10 +2410,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2421,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,10 +2432,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,10 +2443,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,10 +2454,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,10 +2465,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,10 +2476,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,10 +2487,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,10 +2498,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,10 +2509,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,10 +2520,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,10 +2531,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2542,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,10 +2553,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,10 +2564,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,10 +2575,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,10 +2586,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,10 +2597,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,10 +2608,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,10 +2619,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,10 +2630,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,10 +2641,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,10 +2652,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,10 +2663,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,10 +2674,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,10 +2685,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2696,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,10 +2707,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,10 +2718,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,10 +2729,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,10 +2740,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,10 +2751,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,10 +2762,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,10 +2773,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +2784,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +2795,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,10 +2806,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,10 +2817,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,10 +2828,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,10 +2839,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,10 +2850,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,10 +2861,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,10 +2872,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,10 +2883,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,10 +2894,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,10 +2905,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,10 +2916,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,10 +2927,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,10 +2938,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,10 +2949,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,362 +2960,373 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>227</v>
+      <c r="A79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>227</v>
+      <c r="A80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="251">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -666,6 +666,21 @@
   </si>
   <si>
     <t xml:space="preserve">2023-08-04 21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuiabá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-07 20:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arena Pantanal-MT</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -834,7 +849,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -845,6 +860,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -864,13 +883,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
+      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2231,6 +2250,32 @@
       </c>
       <c r="H52" s="0" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2300,7 @@
       <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2267,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,10 +2323,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,10 +2334,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,10 +2345,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,10 +2356,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,10 +2367,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,10 +2378,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2389,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2400,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,10 +2411,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,10 +2422,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,10 +2433,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,10 +2444,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,10 +2455,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,10 +2466,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,10 +2477,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,10 +2488,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,10 +2499,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,10 +2510,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,10 +2521,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,10 +2532,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,10 +2543,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,10 +2554,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,10 +2565,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,10 +2576,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2587,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,10 +2598,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,10 +2609,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,10 +2620,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,10 +2631,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,10 +2642,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,10 +2653,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,10 +2664,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,10 +2675,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,10 +2686,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,10 +2697,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2708,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,10 +2719,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,10 +2730,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,10 +2741,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,10 +2752,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,10 +2763,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,10 +2774,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,10 +2785,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,10 +2796,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,10 +2807,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,10 +2818,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +2829,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,10 +2840,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2851,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,10 +2862,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2873,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2884,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,10 +2895,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,10 +2906,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,10 +2917,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,10 +2928,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,10 +2939,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,10 +2950,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,10 +2961,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,10 +2972,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,10 +2983,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,10 +2994,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,10 +3005,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,10 +3016,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,10 +3027,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +3038,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3049,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +3060,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,10 +3071,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,10 +3082,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3093,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3104,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +3115,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,10 +3126,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3137,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,10 +3148,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,10 +3159,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,10 +3170,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,10 +3181,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,10 +3192,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3203,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,10 +3214,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,10 +3225,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,10 +3236,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,10 +3247,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3258,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,10 +3269,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,10 +3280,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +3291,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3302,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,10 +3313,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,10 +3324,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,10 +3335,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,10 +3346,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3357,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3368,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="255">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -681,6 +681,18 @@
   </si>
   <si>
     <t xml:space="preserve">Arena Pantanal-MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa Libertadores da América - Round of 16  - Second leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-10 21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defensores del Chaco-Paraguai</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -883,13 +895,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A54" activeCellId="1" sqref="98:98 A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2276,6 +2288,32 @@
       </c>
       <c r="H53" s="3" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2294,13 +2332,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="98:98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2312,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,10 +2372,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,10 +2383,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,10 +2394,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,10 +2405,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,10 +2416,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,10 +2427,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,10 +2438,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,10 +2449,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,10 +2460,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,10 +2471,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,10 +2482,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,10 +2493,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,10 +2504,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,10 +2515,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,10 +2526,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,10 +2537,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,10 +2548,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,10 +2559,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,10 +2570,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,10 +2581,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,10 +2592,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2603,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,10 +2614,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,10 +2625,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,10 +2636,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,10 +2647,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,10 +2658,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,10 +2669,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,10 +2680,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,10 +2691,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,10 +2702,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,10 +2713,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,10 +2724,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,10 +2735,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,10 +2746,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,10 +2757,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,10 +2768,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,10 +2779,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,10 +2790,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,10 +2801,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,10 +2812,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,10 +2823,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,10 +2834,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,10 +2845,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,10 +2856,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,10 +2867,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,10 +2878,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,10 +2889,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,10 +2900,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,10 +2911,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,10 +2922,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,10 +2933,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +2944,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,10 +2955,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,10 +2966,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,10 +2977,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,10 +2988,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,10 +2999,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,10 +3010,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,10 +3021,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,10 +3032,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,10 +3043,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,10 +3054,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,10 +3065,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,10 +3076,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,10 +3087,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,10 +3098,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,10 +3109,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,10 +3120,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,10 +3131,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,10 +3142,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,10 +3153,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,10 +3164,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,10 +3175,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,10 +3186,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,10 +3197,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,10 +3208,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,10 +3219,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,10 +3230,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,10 +3241,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,10 +3252,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,10 +3263,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,10 +3274,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +3285,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +3296,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +3307,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,10 +3318,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,10 +3329,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3340,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,10 +3351,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,10 +3362,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,10 +3373,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,10 +3384,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,10 +3395,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +3406,21 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="259">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -693,6 +693,18 @@
   </si>
   <si>
     <t xml:space="preserve">Defensores del Chaco-Paraguai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-13 18:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -895,13 +907,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A54" activeCellId="1" sqref="98:98 A54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="55:55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2314,6 +2326,32 @@
       </c>
       <c r="H54" s="0" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2332,13 +2370,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="98:98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A99" activeCellId="1" sqref="55:55 A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2350,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,10 +2399,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,10 +2410,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,10 +2421,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,10 +2432,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,10 +2443,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,10 +2454,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,10 +2465,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,10 +2476,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,10 +2487,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,10 +2498,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,10 +2509,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,10 +2520,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2531,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,10 +2542,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,10 +2553,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,10 +2564,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2575,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,10 +2586,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,10 +2597,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2608,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,10 +2619,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,10 +2630,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,10 +2641,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2652,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +2663,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +2674,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,10 +2685,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +2696,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,10 +2707,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,10 +2718,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,10 +2729,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,10 +2740,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,10 +2751,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,10 +2762,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,10 +2773,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,10 +2784,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,10 +2795,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,10 +2806,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,10 +2817,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,10 +2828,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,10 +2839,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +2850,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,10 +2861,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,10 +2872,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,10 +2883,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,10 +2894,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,10 +2905,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,10 +2916,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,10 +2927,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,10 +2938,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,10 +2949,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,10 +2960,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,10 +2971,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,10 +2982,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,10 +2993,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,10 +3004,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,10 +3015,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,10 +3026,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,10 +3037,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,10 +3048,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,10 +3059,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,10 +3070,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,10 +3081,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,10 +3092,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,10 +3103,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,10 +3114,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,10 +3125,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,10 +3136,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,10 +3147,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,10 +3158,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,10 +3169,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,10 +3180,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,10 +3191,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,10 +3202,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,10 +3213,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,10 +3224,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,10 +3235,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,10 +3246,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3257,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,10 +3268,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,10 +3279,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,10 +3290,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,10 +3301,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,10 +3312,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,10 +3323,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,10 +3334,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,10 +3345,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,10 +3356,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,10 +3367,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,10 +3378,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,10 +3389,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,10 +3400,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,10 +3411,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,10 +3422,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,10 +3433,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,10 +3444,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,10 +3455,21 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="262">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -705,6 +705,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-08-13 18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa do Brasil – Semifinal – Second leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-17 21:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -907,13 +916,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="55:55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="1" sqref="100:100 A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2351,6 +2360,32 @@
         <v>227</v>
       </c>
       <c r="H55" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" s="0" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2370,13 +2405,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A99" activeCellId="1" sqref="55:55 A99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="100:100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2388,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,10 +2434,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,10 +2445,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,10 +2456,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,10 +2467,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,10 +2478,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,10 +2489,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,10 +2500,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,10 +2511,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,10 +2522,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,10 +2533,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,10 +2544,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,10 +2555,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,10 +2566,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2577,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,10 +2588,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,10 +2599,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,10 +2610,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,10 +2621,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,10 +2632,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,10 +2643,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,10 +2654,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,10 +2665,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,10 +2676,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,10 +2687,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2698,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,10 +2709,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,10 +2720,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,10 +2731,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,10 +2742,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,10 +2753,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,10 +2764,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,10 +2775,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,10 +2786,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,10 +2797,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,10 +2808,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +2819,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,10 +2830,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2841,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,10 +2852,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2863,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2874,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,10 +2885,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,10 +2896,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,10 +2907,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,10 +2918,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,10 +2929,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,10 +2940,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,10 +2951,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,10 +2962,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,10 +2973,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,10 +2984,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,10 +2995,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,10 +3006,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,10 +3017,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +3028,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3039,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +3050,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,10 +3061,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,10 +3072,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3083,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3094,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +3105,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,10 +3116,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3127,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,10 +3138,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,10 +3149,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,10 +3160,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,10 +3171,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,10 +3182,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3193,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,10 +3204,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,10 +3215,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,10 +3226,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,10 +3237,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3248,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,10 +3259,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,10 +3270,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +3281,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3292,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,10 +3303,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,10 +3314,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,10 +3325,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,10 +3336,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3347,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3358,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3369,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3380,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,10 +3391,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,10 +3402,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,10 +3413,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,10 +3424,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,10 +3435,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,10 +3446,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,10 +3457,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,10 +3468,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,10 +3479,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,10 +3490,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,10 +3501,21 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C99" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>243</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="267">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -716,6 +716,15 @@
     <t xml:space="preserve">2023-08-17 21:30:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-20 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couto Pereira-PR</t>
+  </si>
+  <si>
     <t xml:space="preserve">gols</t>
   </si>
   <si>
@@ -807,6 +816,12 @@
   </si>
   <si>
     <t xml:space="preserve">Own Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz Araújo</t>
   </si>
 </sst>
 </file>
@@ -916,13 +931,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="1" sqref="100:100 A56"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="1" sqref="101:103 B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2387,6 +2402,32 @@
       </c>
       <c r="H56" s="0" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2405,13 +2446,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="100:100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="101:103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2423,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,10 +2475,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,10 +2486,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,10 +2497,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +2508,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,10 +2519,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,10 +2530,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,10 +2541,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2552,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,10 +2563,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,10 +2574,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,10 +2585,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,10 +2596,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,10 +2607,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,10 +2618,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,10 +2629,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +2640,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,10 +2651,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,10 +2662,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,10 +2673,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,10 +2684,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +2695,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,10 +2706,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,10 +2717,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,10 +2728,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +2739,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,10 +2750,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,10 +2761,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,10 +2772,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,10 +2783,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,10 +2794,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,10 +2805,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,10 +2816,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,10 +2827,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,10 +2838,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,10 +2849,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,10 +2860,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,10 +2871,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,10 +2882,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,10 +2893,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +2904,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,10 +2915,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,10 +2926,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,10 +2937,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,10 +2948,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,10 +2959,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,10 +2970,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,10 +2981,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,10 +2992,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +3003,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,10 +3014,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,10 +3025,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,10 +3036,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,10 +3047,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,10 +3058,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,10 +3069,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,10 +3080,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,10 +3091,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,10 +3102,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,10 +3113,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,10 +3124,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,10 +3135,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,10 +3146,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,10 +3157,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,10 +3168,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,10 +3179,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,10 +3190,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,10 +3201,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,10 +3212,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,10 +3223,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3193,10 +3234,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,10 +3245,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,10 +3256,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,10 +3267,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,10 +3278,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,10 +3289,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,10 +3300,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,10 +3311,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,10 +3322,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,10 +3333,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +3344,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,10 +3355,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,10 +3366,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,10 +3377,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,10 +3388,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,10 +3399,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,10 +3410,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,10 +3421,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,10 +3432,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,10 +3443,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,10 +3454,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,10 +3465,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,10 +3476,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,10 +3487,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,10 +3498,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,10 +3509,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,10 +3520,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,10 +3531,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,10 +3542,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,10 +3553,43 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>246</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="269">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -725,6 +725,15 @@
     <t xml:space="preserve">Couto Pereira-PR</t>
   </si>
   <si>
+    <t xml:space="preserve">BR20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-26 18:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">gols</t>
   </si>
   <si>
@@ -816,9 +825,6 @@
   </si>
   <si>
     <t xml:space="preserve">Own Goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR20</t>
   </si>
   <si>
     <t xml:space="preserve">Luiz Araújo</t>
@@ -931,13 +937,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="1" sqref="101:103 B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="58:58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2428,6 +2434,32 @@
       </c>
       <c r="H57" s="0" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2448,11 +2480,11 @@
   </sheetPr>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="101:103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="1" sqref="58:58 A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2464,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,10 +2507,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,10 +2518,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2529,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,10 +2540,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,10 +2551,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,10 +2562,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,10 +2573,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,10 +2584,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,10 +2595,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,10 +2606,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,10 +2617,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,10 +2628,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,10 +2639,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,10 +2650,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,10 +2661,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,10 +2672,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2683,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,10 +2694,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,10 +2705,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,10 +2716,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,10 +2727,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,10 +2738,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,10 +2749,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,10 +2760,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +2771,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +2782,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,10 +2793,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,10 +2804,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,10 +2815,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,10 +2826,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,10 +2837,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,10 +2848,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,10 +2859,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,10 +2870,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,10 +2881,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,10 +2892,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,10 +2903,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,10 +2914,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,10 +2925,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,10 +2936,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,10 +2947,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,10 +2958,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,10 +2969,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,10 +2980,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,10 +2991,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,10 +3002,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,10 +3013,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +3024,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,10 +3035,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,10 +3046,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,10 +3057,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,10 +3068,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,10 +3079,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,10 +3090,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,10 +3101,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,10 +3112,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,10 +3123,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3134,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,10 +3145,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,10 +3156,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,10 +3167,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,10 +3178,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,10 +3189,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,10 +3200,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,10 +3211,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,10 +3222,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,10 +3233,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,10 +3244,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,10 +3255,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,10 +3266,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,10 +3277,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,10 +3288,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3299,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,10 +3310,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,10 +3321,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,10 +3332,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,10 +3343,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,10 +3354,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,10 +3365,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,10 +3376,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,10 +3387,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,10 +3398,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,10 +3409,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,10 +3420,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,10 +3431,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,10 +3442,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,10 +3453,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,10 +3464,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,10 +3475,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,10 +3486,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,10 +3497,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +3508,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,10 +3519,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,10 +3530,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +3541,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,10 +3552,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,10 +3563,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,10 +3574,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,43 +3585,43 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="274">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -734,6 +734,18 @@
     <t xml:space="preserve">2023-08-26 18:30:00</t>
   </si>
   <si>
+    <t xml:space="preserve">BR21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-02 21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilton Santos-RJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">gols</t>
   </si>
   <si>
@@ -828,6 +840,9 @@
   </si>
   <si>
     <t xml:space="preserve">Luiz Araújo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR22</t>
   </si>
 </sst>
 </file>
@@ -937,13 +952,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="58:58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="1" sqref="104:105 A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2460,6 +2475,32 @@
       </c>
       <c r="H58" s="0" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2478,13 +2519,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A104" activeCellId="1" sqref="58:58 A104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A105" activeCellId="0" sqref="104:105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2496,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,10 +2548,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,10 +2559,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,10 +2570,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,10 +2581,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,10 +2592,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,10 +2603,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,10 +2614,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,10 +2625,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,10 +2636,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,10 +2647,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,10 +2658,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,10 +2669,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,10 +2680,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,10 +2691,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,10 +2702,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,10 +2713,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,10 +2724,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,10 +2735,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,10 +2746,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,10 +2757,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,10 +2768,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,10 +2779,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,10 +2790,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,10 +2801,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,10 +2812,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,10 +2823,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,10 +2834,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,10 +2845,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,10 +2856,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,10 +2867,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,10 +2878,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,10 +2889,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,10 +2900,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,10 +2911,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,10 +2922,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,10 +2933,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,10 +2944,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,10 +2955,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,10 +2966,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +2977,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,10 +2988,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,10 +2999,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,10 +3010,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,10 +3021,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,10 +3032,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,10 +3043,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,10 +3054,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,10 +3065,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,10 +3076,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,10 +3087,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,10 +3098,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3109,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,10 +3120,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,10 +3131,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,10 +3142,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,10 +3153,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,10 +3164,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,10 +3175,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,10 +3186,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,10 +3197,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,10 +3208,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,10 +3219,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,10 +3230,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,10 +3241,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,10 +3252,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,10 +3263,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,10 +3274,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,10 +3285,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,10 +3296,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,10 +3307,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,10 +3318,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,10 +3329,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,10 +3340,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,10 +3351,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,10 +3362,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,10 +3373,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,10 +3384,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,10 +3395,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,10 +3406,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,10 +3417,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,10 +3428,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,10 +3439,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,10 +3450,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,10 +3461,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,10 +3472,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,10 +3483,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,10 +3494,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,10 +3505,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,10 +3516,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,10 +3527,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,10 +3538,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,10 +3549,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,10 +3560,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,10 +3571,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,10 +3582,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,10 +3593,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,10 +3604,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,10 +3615,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,10 +3626,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,10 +3637,10 @@
         <v>234</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,10 +3648,10 @@
         <v>234</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,10 +3659,32 @@
         <v>234</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="277">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -716,6 +716,9 @@
     <t xml:space="preserve">2023-08-17 21:30:00</t>
   </si>
   <si>
+    <t xml:space="preserve">BR20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeonato Brasileiro - Round 20</t>
   </si>
   <si>
@@ -725,7 +728,7 @@
     <t xml:space="preserve">Couto Pereira-PR</t>
   </si>
   <si>
-    <t xml:space="preserve">BR20</t>
+    <t xml:space="preserve">BR21</t>
   </si>
   <si>
     <t xml:space="preserve">Campeonato Brasileiro - Round 21</t>
@@ -734,7 +737,7 @@
     <t xml:space="preserve">2023-08-26 18:30:00</t>
   </si>
   <si>
-    <t xml:space="preserve">BR21</t>
+    <t xml:space="preserve">BR22</t>
   </si>
   <si>
     <t xml:space="preserve">Campeonato Brasileiro - Round 22</t>
@@ -746,6 +749,15 @@
     <t xml:space="preserve">Nilton Santos-RJ</t>
   </si>
   <si>
+    <t xml:space="preserve">BR23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-14 21:30:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">gols</t>
   </si>
   <si>
@@ -840,9 +852,6 @@
   </si>
   <si>
     <t xml:space="preserve">Luiz Araújo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR22</t>
   </si>
 </sst>
 </file>
@@ -952,13 +961,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="1" sqref="104:105 A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2427,7 +2436,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>102</v>
@@ -2442,18 +2451,18 @@
         <v>3</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>9</v>
@@ -2468,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>201</v>
@@ -2479,7 +2488,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>65</v>
@@ -2494,13 +2503,39 @@
         <v>2</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2521,11 +2556,11 @@
   </sheetPr>
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A105" activeCellId="0" sqref="104:105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2537,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,10 +2583,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,10 +2594,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2605,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,10 +2616,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,10 +2627,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,10 +2638,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2649,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +2660,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +2671,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,10 +2682,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +2693,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,10 +2704,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,10 +2715,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,10 +2726,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,10 +2737,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,10 +2748,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,10 +2759,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,10 +2770,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,10 +2781,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,10 +2792,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,10 +2803,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,10 +2814,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,10 +2825,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,10 +2836,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +2847,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,10 +2858,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,10 +2869,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,10 +2880,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,10 +2891,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,10 +2902,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,10 +2913,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,10 +2924,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,10 +2935,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,10 +2946,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,10 +2957,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,10 +2968,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,10 +2979,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,10 +2990,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,10 +3001,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,10 +3012,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,10 +3023,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,10 +3034,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,10 +3045,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,10 +3056,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,10 +3067,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,10 +3078,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,10 +3089,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,10 +3100,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,10 +3111,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,10 +3122,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,10 +3133,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,10 +3144,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,10 +3155,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,10 +3166,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,10 +3177,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,10 +3188,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,10 +3199,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,10 +3210,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,10 +3221,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,10 +3232,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,10 +3243,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3254,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,10 +3265,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,10 +3276,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,10 +3287,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,10 +3298,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,10 +3309,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,10 +3320,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,10 +3331,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,10 +3342,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,10 +3353,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,10 +3364,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,10 +3375,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,10 +3386,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,10 +3397,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,10 +3408,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,10 +3419,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,10 +3430,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,10 +3441,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,10 +3452,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,10 +3463,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,10 +3474,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,10 +3485,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,10 +3496,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,10 +3507,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,10 +3518,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,10 +3529,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,10 +3540,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,10 +3551,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,10 +3562,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,10 +3573,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,10 +3584,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,10 +3595,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,10 +3606,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,10 +3617,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,10 +3628,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,10 +3639,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,10 +3650,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,65 +3661,65 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="280">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -756,6 +756,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-09-14 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa do Brasil - Final - First leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-17 16:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -961,13 +970,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="61:61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2536,6 +2545,32 @@
       </c>
       <c r="H60" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2557,10 +2592,10 @@
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
+      <selection pane="topLeft" activeCell="E98" activeCellId="1" sqref="61:61 E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2572,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,10 +2618,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,10 +2629,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,10 +2640,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,10 +2651,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,10 +2662,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,10 +2673,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,10 +2684,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,10 +2695,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,10 +2706,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,10 +2717,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,10 +2728,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,10 +2739,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,10 +2750,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,10 +2761,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,10 +2772,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,10 +2783,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,10 +2794,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,10 +2805,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,10 +2816,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,10 +2827,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,10 +2838,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,10 +2849,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,10 +2860,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,10 +2871,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,10 +2882,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,10 +2893,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,10 +2904,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +2915,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,10 +2926,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,10 +2937,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,10 +2948,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,10 +2959,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,10 +2970,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,10 +2981,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,10 +2992,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,10 +3003,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +3014,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +3025,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3036,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,10 +3047,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,10 +3058,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,10 +3069,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,10 +3080,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,10 +3091,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,10 +3102,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,10 +3113,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,10 +3124,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,10 +3135,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +3146,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,10 +3157,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,10 +3168,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,10 +3179,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,10 +3190,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,10 +3201,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,10 +3212,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,10 +3223,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,10 +3234,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,10 +3245,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,10 +3256,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,10 +3267,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,10 +3278,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,10 +3289,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,10 +3300,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,10 +3311,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,10 +3322,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,10 +3333,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,10 +3344,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3355,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,10 +3366,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,10 +3377,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3388,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,10 +3399,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,10 +3410,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,10 +3421,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,10 +3432,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,10 +3443,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,10 +3454,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,10 +3465,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,10 +3476,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,10 +3487,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,10 +3498,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,10 +3509,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,10 +3520,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,10 +3531,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,10 +3542,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,10 +3553,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,10 +3564,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,10 +3575,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3586,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,10 +3597,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,10 +3608,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,10 +3619,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3630,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,10 +3641,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,10 +3652,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,10 +3663,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,10 +3674,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,10 +3685,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,10 +3696,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +3707,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,10 +3718,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,10 +3729,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,10 +3740,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,10 +3751,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="284">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -765,6 +765,18 @@
   </si>
   <si>
     <t xml:space="preserve">2023-09-17 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-20 19:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estádio Hailé Pinheiro-GO</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -970,13 +982,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="61:61"/>
+      <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2571,6 +2583,32 @@
       </c>
       <c r="H61" s="0" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2592,10 +2630,10 @@
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E98" activeCellId="1" sqref="61:61 E98"/>
+      <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2607,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,10 +2656,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,10 +2667,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,10 +2678,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2689,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,10 +2700,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,10 +2711,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,10 +2722,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,10 +2733,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,10 +2744,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,10 +2755,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,10 +2766,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +2777,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,10 +2788,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,10 +2799,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,10 +2810,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,10 +2821,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,10 +2832,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,10 +2843,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,10 +2854,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,10 +2865,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,10 +2876,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,10 +2887,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,10 +2898,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,10 +2909,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,10 +2920,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,10 +2931,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,10 +2942,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,10 +2953,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,10 +2964,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,10 +2975,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,10 +2986,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,10 +2997,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,10 +3008,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,10 +3019,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +3030,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,10 +3041,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,10 +3052,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,10 +3063,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,10 +3074,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,10 +3085,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,10 +3096,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,10 +3107,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,10 +3118,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,10 +3129,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3140,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,10 +3151,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,10 +3162,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,10 +3173,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,10 +3184,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,10 +3195,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,10 +3206,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,10 +3217,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,10 +3228,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,10 +3239,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,10 +3250,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,10 +3261,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,10 +3272,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,10 +3283,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,10 +3294,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3305,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,10 +3316,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,10 +3327,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,10 +3338,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,10 +3349,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,10 +3360,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,10 +3371,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,10 +3382,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,10 +3393,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,10 +3404,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,10 +3415,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,10 +3426,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,10 +3437,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,10 +3448,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,10 +3459,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,10 +3470,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,10 +3481,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,10 +3492,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,10 +3503,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +3514,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,10 +3525,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,10 +3536,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +3547,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,10 +3558,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,10 +3569,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,10 +3580,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,10 +3591,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,10 +3602,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,10 +3613,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,10 +3624,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,10 +3635,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,10 +3646,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,10 +3657,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +3668,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,10 +3679,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,10 +3690,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,10 +3701,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,10 +3712,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,10 +3723,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,10 +3734,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,10 +3745,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,10 +3756,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,10 +3767,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,10 +3778,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,10 +3789,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="288">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -777,6 +777,18 @@
   </si>
   <si>
     <t xml:space="preserve">Estádio Hailé Pinheiro-GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copa do Brasil - Final – Second leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-24 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morumbi-SP</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -982,13 +994,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2609,6 +2621,32 @@
       </c>
       <c r="H62" s="0" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2627,13 +2665,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2645,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,10 +2694,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,10 +2705,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,10 +2716,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,10 +2727,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,10 +2738,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,10 +2749,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,10 +2760,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,10 +2771,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,10 +2782,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,10 +2793,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,10 +2804,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,10 +2815,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,10 +2826,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,10 +2837,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,10 +2848,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,10 +2859,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,10 +2870,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,10 +2881,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,10 +2892,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,10 +2903,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,10 +2914,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,10 +2925,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,10 +2936,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,10 +2947,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,10 +2958,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,10 +2969,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,10 +2980,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,10 +2991,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,10 +3002,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,10 +3013,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,10 +3024,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,10 +3035,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,10 +3046,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,10 +3057,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,10 +3068,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,10 +3079,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,10 +3090,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,10 +3101,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,10 +3112,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,10 +3123,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,10 +3134,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,10 +3145,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,10 +3156,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,10 +3167,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,10 +3178,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,10 +3189,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,10 +3200,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,10 +3211,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,10 +3222,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,10 +3233,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,10 +3244,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,10 +3255,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,10 +3266,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,10 +3277,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,10 +3288,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,10 +3299,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,10 +3310,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,10 +3321,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,10 +3332,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,10 +3343,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,10 +3354,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,10 +3365,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,10 +3376,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,10 +3387,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,10 +3398,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,10 +3409,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,10 +3420,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,10 +3431,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,10 +3442,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,10 +3453,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3426,10 +3464,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,10 +3475,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,10 +3486,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,10 +3497,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,10 +3508,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,10 +3519,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,10 +3530,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3503,10 +3541,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,10 +3552,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,10 +3563,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,10 +3574,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,10 +3585,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,10 +3596,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,10 +3607,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,10 +3618,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,10 +3629,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,10 +3640,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,10 +3651,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,10 +3662,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,10 +3673,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,10 +3684,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,10 +3695,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,10 +3706,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,10 +3717,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,10 +3728,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,10 +3739,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,10 +3750,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,10 +3761,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,10 +3772,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,10 +3783,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,10 +3794,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,10 +3805,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,10 +3816,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,10 +3827,21 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="291">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -789,6 +789,15 @@
   </si>
   <si>
     <t xml:space="preserve">Morumbi-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-30 16:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -994,13 +1003,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2647,6 +2656,32 @@
       </c>
       <c r="H63" s="0" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2665,13 +2700,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2683,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,10 +2729,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,10 +2740,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,10 +2751,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,10 +2762,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,10 +2773,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,10 +2784,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,10 +2795,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,10 +2806,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,10 +2817,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,10 +2828,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,10 +2839,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,10 +2850,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,10 +2861,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,10 +2872,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,10 +2883,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,10 +2894,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,10 +2905,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,10 +2916,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,10 +2927,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,10 +2938,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,10 +2949,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,10 +2960,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +2971,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,10 +2982,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,10 +2993,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,10 +3004,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,10 +3015,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,10 +3026,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,10 +3037,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,10 +3048,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,10 +3059,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,10 +3070,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,10 +3081,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,10 +3092,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3103,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,10 +3114,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,10 +3125,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,10 +3136,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,10 +3147,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,10 +3158,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,10 +3169,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,10 +3180,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,10 +3191,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,10 +3202,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,10 +3213,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,10 +3224,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,10 +3235,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,10 +3246,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,10 +3257,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,10 +3268,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,10 +3279,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,10 +3290,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,10 +3301,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,10 +3312,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,10 +3323,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,10 +3334,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,10 +3345,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,10 +3356,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,10 +3367,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,10 +3378,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,10 +3389,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,10 +3400,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,10 +3411,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,10 +3422,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,10 +3433,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,10 +3444,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,10 +3455,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,10 +3466,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,10 +3477,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,10 +3488,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,10 +3499,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,10 +3510,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,10 +3521,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,10 +3532,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,10 +3543,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,10 +3554,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,10 +3565,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,10 +3576,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,10 +3587,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,10 +3598,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,10 +3609,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,10 +3620,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,10 +3631,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,10 +3642,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,10 +3653,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,10 +3664,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,10 +3675,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3651,10 +3686,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,10 +3697,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,10 +3708,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,10 +3719,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,10 +3730,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,10 +3741,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,10 +3752,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,10 +3763,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,10 +3774,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,10 +3785,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,10 +3796,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,10 +3807,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,10 +3818,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,10 +3829,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,10 +3840,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,10 +3851,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,10 +3862,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,10 +3873,21 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="295">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -798,6 +798,34 @@
   </si>
   <si>
     <t xml:space="preserve">2023-09-30 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-07 21:00:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NeoQuímica Arena </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-SP</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -904,7 +932,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -925,6 +953,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -969,7 +1002,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,6 +1017,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1003,13 +1040,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="65:65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2682,6 +2719,32 @@
       </c>
       <c r="H64" s="0" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2700,13 +2763,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A108" activeCellId="1" sqref="65:65 A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2718,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,10 +2792,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,10 +2803,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,10 +2814,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,10 +2825,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,10 +2836,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +2847,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,10 +2858,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2869,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,10 +2880,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2891,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2902,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,10 +2913,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,10 +2924,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,10 +2935,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,10 +2946,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,10 +2957,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,10 +2968,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,10 +2979,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,10 +2990,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,10 +3001,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,10 +3012,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,10 +3023,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,10 +3034,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,10 +3045,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +3056,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +3067,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +3078,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,10 +3089,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,10 +3100,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3111,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3122,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +3133,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,10 +3144,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3155,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,10 +3166,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,10 +3177,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,10 +3188,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,10 +3199,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,10 +3210,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3221,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,10 +3232,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,10 +3243,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,10 +3254,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,10 +3265,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3276,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,10 +3287,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,10 +3298,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +3309,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3320,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,10 +3331,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,10 +3342,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,10 +3353,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,10 +3364,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3375,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3386,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3397,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3408,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,10 +3419,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,10 +3430,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,10 +3441,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,10 +3452,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,10 +3463,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,10 +3474,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,10 +3485,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,10 +3496,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,10 +3507,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,10 +3518,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,10 +3529,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,10 +3540,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,10 +3551,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,10 +3562,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,10 +3573,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,10 +3584,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,10 +3595,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,10 +3606,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,10 +3617,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,10 +3628,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,10 +3639,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,10 +3650,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,10 +3661,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,10 +3672,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,10 +3683,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,10 +3694,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,10 +3705,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,10 +3716,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,10 +3727,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,10 +3738,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,10 +3749,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,10 +3760,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,10 +3771,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,10 +3782,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,10 +3793,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,10 +3804,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,10 +3815,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,10 +3826,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,10 +3837,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,10 +3848,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,10 +3859,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,10 +3870,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,10 +3881,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,10 +3892,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,10 +3903,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,10 +3914,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,10 +3925,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,21 +3936,32 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="305">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -809,23 +809,37 @@
     <t xml:space="preserve">2023-10-07 21:00:00</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NeoQuímica Arena </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-SP</t>
-    </r>
+    <t xml:space="preserve">NeoQuímica Arena -SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-19 19:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mineirão-MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-22 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-26 21:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -932,7 +946,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -953,11 +967,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1002,7 +1011,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1017,10 +1026,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1040,13 +1045,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="65:65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="1" sqref="112:113 A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2743,8 +2748,86 @@
       <c r="G65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="2" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2763,13 +2846,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A108" activeCellId="1" sqref="65:65 A108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="112:113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2781,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,10 +2875,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,10 +2886,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,10 +2897,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,10 +2908,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,10 +2919,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,10 +2930,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,10 +2941,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,10 +2952,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +2963,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,10 +2974,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,10 +2985,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,10 +2996,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,10 +3007,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,10 +3018,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,10 +3029,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,10 +3040,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,10 +3051,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +3062,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +3073,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3084,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,10 +3095,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,10 +3106,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,10 +3117,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,10 +3128,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,10 +3139,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,10 +3150,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,10 +3161,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,10 +3172,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,10 +3183,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +3194,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,10 +3205,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,10 +3216,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,10 +3227,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,10 +3238,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,10 +3249,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,10 +3260,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,10 +3271,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,10 +3282,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,10 +3293,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,10 +3304,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,10 +3315,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,10 +3326,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,10 +3337,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,10 +3348,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,10 +3359,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,10 +3370,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,10 +3381,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,10 +3392,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3403,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,10 +3414,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,10 +3425,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3436,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,10 +3447,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,10 +3458,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,10 +3469,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,10 +3480,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,10 +3491,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,10 +3502,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,10 +3513,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,10 +3524,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,10 +3535,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,10 +3546,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,10 +3557,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,10 +3568,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,10 +3579,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,10 +3590,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,10 +3601,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,10 +3612,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,10 +3623,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3634,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,10 +3645,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,10 +3656,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,10 +3667,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3678,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,10 +3689,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,10 +3700,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,10 +3711,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,10 +3722,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,10 +3733,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,10 +3744,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +3755,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,10 +3766,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,10 +3777,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,10 +3788,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,10 +3799,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,10 +3810,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,10 +3821,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,10 +3832,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,10 +3843,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,10 +3854,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,10 +3865,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,10 +3876,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,10 +3887,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,10 +3898,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,10 +3909,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,10 +3920,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,10 +3931,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,10 +3942,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,10 +3953,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,10 +3964,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,10 +3975,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,10 +3986,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,10 +3997,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,10 +4008,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,10 +4019,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,10 +4030,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,10 +4041,65 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C108" s="0" t="s">
-        <v>279</v>
+      <c r="C112" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="312">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -840,6 +840,27 @@
   </si>
   <si>
     <t xml:space="preserve">2023-10-26 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-01 20:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-05 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castelão-CE</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1045,13 +1066,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="1" sqref="112:113 A68"/>
+      <selection pane="topLeft" activeCell="A70" activeCellId="1" sqref="114:116 A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2828,6 +2849,58 @@
       </c>
       <c r="H68" s="0" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2846,13 +2919,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="112:113"/>
+      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="114:116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2864,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,10 +2948,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,10 +2959,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,10 +2981,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,10 +2992,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,10 +3003,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,10 +3014,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,10 +3025,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,10 +3036,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,10 +3047,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,10 +3058,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,10 +3069,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,10 +3080,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,10 +3091,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,10 +3102,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,10 +3113,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,10 +3124,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,10 +3135,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,10 +3146,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,10 +3157,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,10 +3168,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,10 +3179,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,10 +3190,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,10 +3201,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,10 +3212,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,10 +3223,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,10 +3234,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,10 +3245,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,10 +3256,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,10 +3267,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,10 +3278,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,10 +3289,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,10 +3300,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,10 +3311,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,10 +3322,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,10 +3333,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,10 +3344,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,10 +3355,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,10 +3366,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,10 +3377,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,10 +3388,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,10 +3399,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,10 +3410,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,10 +3421,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,10 +3432,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3443,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,10 +3454,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,10 +3465,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,10 +3476,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,10 +3487,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,10 +3498,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,10 +3509,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,10 +3520,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,10 +3531,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,10 +3542,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,10 +3553,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,10 +3564,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,10 +3575,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,10 +3586,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,10 +3597,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,10 +3608,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +3619,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,10 +3630,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,10 +3641,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,10 +3652,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,10 +3663,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,10 +3674,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,10 +3685,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,10 +3696,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,10 +3707,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,10 +3718,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,10 +3729,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,10 +3740,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,10 +3751,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,10 +3762,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +3773,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,10 +3784,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,10 +3795,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,10 +3806,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,10 +3817,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,10 +3828,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,10 +3839,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3850,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,10 +3861,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,10 +3872,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,10 +3883,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,10 +3894,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,10 +3905,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,10 +3916,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +3927,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +3938,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,10 +3949,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,10 +3960,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,10 +3971,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +3982,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,10 +3993,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,10 +4004,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,10 +4015,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,10 +4026,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,10 +4037,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,10 +4048,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,10 +4059,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,10 +4070,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,10 +4081,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,10 +4092,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,10 +4103,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,10 +4114,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,10 +4125,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,10 +4136,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,10 +4147,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,10 +4158,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,10 +4169,43 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="315">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t xml:space="preserve">Castelão-CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-08 21:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1066,13 +1075,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="1" sqref="114:116 A70"/>
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2901,6 +2910,32 @@
       </c>
       <c r="H70" s="0" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2919,13 +2954,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="114:116"/>
+      <selection pane="topLeft" activeCell="A119" activeCellId="0" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2937,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,10 +2983,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,10 +2994,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,10 +3005,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,10 +3016,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +3027,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,10 +3038,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,10 +3049,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,10 +3060,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,10 +3071,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,10 +3082,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,10 +3093,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,10 +3104,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,10 +3115,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,10 +3126,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3137,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,10 +3148,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,10 +3159,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,10 +3170,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,10 +3181,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,10 +3192,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,10 +3203,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,10 +3214,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,10 +3225,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,10 +3236,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,10 +3247,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,10 +3258,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,10 +3269,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,10 +3280,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,10 +3291,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3302,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,10 +3313,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,10 +3324,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,10 +3335,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,10 +3346,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,10 +3357,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,10 +3368,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,10 +3379,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,10 +3390,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,10 +3401,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,10 +3412,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,10 +3423,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,10 +3434,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,10 +3445,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,10 +3456,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,10 +3467,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,10 +3478,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,10 +3489,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,10 +3500,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +3511,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,10 +3522,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,10 +3533,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +3544,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,10 +3555,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,10 +3566,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,10 +3577,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,10 +3588,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,10 +3599,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,10 +3610,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,10 +3621,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,10 +3632,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,10 +3643,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,10 +3654,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +3665,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,10 +3676,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,10 +3687,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,10 +3698,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,10 +3709,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,10 +3720,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,10 +3731,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,10 +3742,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,10 +3753,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,10 +3764,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,10 +3775,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,10 +3786,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,10 +3797,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,10 +3808,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,10 +3819,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,10 +3830,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,10 +3841,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,10 +3852,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,10 +3863,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,10 +3874,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,10 +3885,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,10 +3896,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,10 +3907,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,10 +3918,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,10 +3929,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,10 +3940,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,10 +3951,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,10 +3962,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,10 +3973,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,10 +3984,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,10 +3995,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,10 +4006,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,10 +4017,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,10 +4028,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,10 +4039,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,10 +4050,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,10 +4061,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,10 +4072,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,10 +4083,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,10 +4094,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,10 +4105,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,10 +4116,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,10 +4127,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,10 +4138,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,10 +4149,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,10 +4160,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,10 +4171,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,10 +4182,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,10 +4193,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,10 +4204,10 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,10 +4215,10 @@
         <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,10 +4226,10 @@
         <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,10 +4237,43 @@
         <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="318">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -870,6 +870,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-11-08 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-11 18:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1075,13 +1084,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+      <selection pane="topLeft" activeCell="A72" activeCellId="1" sqref="120:120 A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2935,6 +2944,32 @@
         <v>282</v>
       </c>
       <c r="H71" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H72" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2954,13 +2989,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A119" activeCellId="0" sqref="A119"/>
+      <selection pane="topLeft" activeCell="A120" activeCellId="0" sqref="120:120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -2972,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,10 +3018,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,10 +3029,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,10 +3040,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,10 +3051,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,10 +3062,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,10 +3073,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,10 +3084,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,10 +3095,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,10 +3106,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,10 +3117,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,10 +3128,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,10 +3139,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,10 +3150,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,10 +3161,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,10 +3172,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,10 +3183,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,10 +3194,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,10 +3205,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,10 +3216,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,10 +3227,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,10 +3238,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,10 +3249,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,10 +3260,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,10 +3271,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +3282,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +3293,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +3304,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,10 +3315,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,10 +3326,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3337,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,10 +3348,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,10 +3359,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,10 +3370,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,10 +3381,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,10 +3392,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +3403,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,10 +3414,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,10 +3425,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,10 +3436,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,10 +3447,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,10 +3458,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,10 +3469,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,10 +3480,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,10 +3491,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,10 +3502,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,10 +3513,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,10 +3524,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,10 +3535,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,10 +3546,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,10 +3557,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,10 +3568,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,10 +3579,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,10 +3590,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,10 +3601,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,10 +3612,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,10 +3623,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,10 +3634,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,10 +3645,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,10 +3656,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,10 +3667,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,10 +3678,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,10 +3689,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,10 +3700,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,10 +3711,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,10 +3722,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,10 +3733,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,10 +3744,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,10 +3755,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,10 +3766,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3777,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,10 +3788,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,10 +3799,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,10 +3810,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,10 +3821,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,10 +3832,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,10 +3843,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,10 +3854,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,10 +3865,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,10 +3876,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,10 +3887,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,10 +3898,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,10 +3909,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,10 +3920,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,10 +3931,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,10 +3942,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,10 +3953,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,10 +3964,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,10 +3975,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,10 +3986,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,10 +3997,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,10 +4008,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,10 +4019,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,10 +4030,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,10 +4041,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,10 +4052,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,10 +4063,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,10 +4074,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,10 +4085,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,10 +4096,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,10 +4107,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,10 +4118,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,10 +4129,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,10 +4140,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,10 +4151,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,10 +4162,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,10 +4173,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4149,10 +4184,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,10 +4195,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,10 +4206,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,10 +4217,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,10 +4228,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,10 +4239,10 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,10 +4250,10 @@
         <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,10 +4261,10 @@
         <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,10 +4272,10 @@
         <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,10 +4283,10 @@
         <v>280</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,10 +4294,10 @@
         <v>280</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,10 +4305,21 @@
         <v>280</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="321">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -879,6 +879,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-11-11 18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-23 21:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1084,13 +1093,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="1" sqref="120:120 A72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="73:73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -2970,6 +2979,32 @@
         <v>285</v>
       </c>
       <c r="H72" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H73" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2989,13 +3024,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A120" activeCellId="0" sqref="120:120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A121" activeCellId="1" sqref="73:73 A121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -3007,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,10 +3053,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,10 +3064,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,10 +3075,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,10 +3086,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,10 +3097,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,10 +3108,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,10 +3119,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,10 +3130,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,10 +3141,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,10 +3152,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,10 +3163,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,10 +3174,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,10 +3185,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,10 +3196,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,10 +3207,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,10 +3218,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,10 +3229,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,10 +3240,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,10 +3251,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,10 +3262,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,10 +3273,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,10 +3284,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,10 +3295,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,10 +3306,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,10 +3317,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,10 +3328,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,10 +3339,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,10 +3350,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,10 +3361,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,10 +3372,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,10 +3383,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,10 +3394,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3405,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,10 +3416,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,10 +3427,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,10 +3438,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,10 +3449,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,10 +3460,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,10 +3471,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,10 +3482,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,10 +3493,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,10 +3504,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,10 +3515,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,10 +3526,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,10 +3537,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,10 +3548,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,10 +3559,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,10 +3570,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +3581,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,10 +3592,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,10 +3603,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,10 +3614,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,10 +3625,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,10 +3636,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,10 +3647,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,10 +3658,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,10 +3669,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,10 +3680,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,10 +3691,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,10 +3702,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,10 +3713,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,10 +3724,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +3735,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,10 +3746,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,10 +3757,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,10 +3768,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,10 +3779,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,10 +3790,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,10 +3801,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3812,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,10 +3823,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,10 +3834,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,10 +3845,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,10 +3856,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,10 +3867,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,10 +3878,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +3889,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +3900,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,10 +3911,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,10 +3922,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,10 +3933,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +3944,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,10 +3955,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,10 +3966,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,10 +3977,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,10 +3988,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,10 +3999,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,10 +4010,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,10 +4021,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,10 +4032,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,10 +4043,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,10 +4054,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,10 +4065,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,10 +4076,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,10 +4087,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,10 +4098,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,10 +4109,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,10 +4120,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,10 +4131,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,10 +4142,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,10 +4153,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,10 +4164,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,10 +4175,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,10 +4186,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,10 +4197,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,10 +4208,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,10 +4219,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,10 +4230,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,10 +4241,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,10 +4252,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4228,10 +4263,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,10 +4274,10 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,10 +4285,10 @@
         <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,10 +4296,10 @@
         <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,10 +4307,10 @@
         <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,10 +4318,10 @@
         <v>280</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,10 +4329,10 @@
         <v>280</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,10 +4340,10 @@
         <v>280</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,10 +4351,21 @@
         <v>283</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="325">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -888,6 +888,18 @@
   </si>
   <si>
     <t xml:space="preserve">2023-11-23 21:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-26 18:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estádio Municipal Parque do Sabiá-MG</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1093,13 +1105,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="73:73"/>
+      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="74:74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -3006,6 +3018,32 @@
       </c>
       <c r="H73" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3024,13 +3062,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A121" activeCellId="1" sqref="73:73 A121"/>
+      <selection pane="topLeft" activeCell="A122" activeCellId="1" sqref="74:74 A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -3042,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,10 +3091,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,10 +3102,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,10 +3113,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,10 +3124,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,10 +3135,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,10 +3146,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,10 +3157,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +3168,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,10 +3179,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,10 +3190,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,10 +3201,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,10 +3212,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,10 +3223,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,10 +3234,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,10 +3245,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,10 +3256,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,10 +3267,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,10 +3278,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,10 +3289,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,10 +3300,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,10 +3311,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3284,10 +3322,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,10 +3333,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,10 +3344,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,10 +3355,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,10 +3366,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,10 +3377,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,10 +3388,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,10 +3399,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3410,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,10 +3421,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,10 +3432,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,10 +3443,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,10 +3454,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,10 +3465,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,10 +3476,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,10 +3487,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,10 +3498,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,10 +3509,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,10 +3520,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,10 +3531,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,10 +3542,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,10 +3553,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,10 +3564,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,10 +3575,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,10 +3586,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,10 +3597,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3570,10 +3608,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,10 +3619,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,10 +3630,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,10 +3641,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,10 +3652,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,10 +3663,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,10 +3674,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,10 +3685,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,10 +3696,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,10 +3707,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,10 +3718,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,10 +3729,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,10 +3740,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,10 +3751,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,10 +3762,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +3773,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,10 +3784,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,10 +3795,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3768,10 +3806,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,10 +3817,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,10 +3828,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,10 +3839,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,10 +3850,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,10 +3861,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,10 +3872,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,10 +3883,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,10 +3894,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,10 +3905,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,10 +3916,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,10 +3927,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,10 +3938,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,10 +3949,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,10 +3960,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,10 +3971,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,10 +3982,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,10 +3993,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,10 +4004,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,10 +4015,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,10 +4026,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,10 +4037,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,10 +4048,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,10 +4059,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,10 +4070,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,10 +4081,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,10 +4092,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,10 +4103,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,10 +4114,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,10 +4125,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,10 +4136,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,10 +4147,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4120,10 +4158,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,10 +4169,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,10 +4180,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,10 +4191,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4164,10 +4202,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,10 +4213,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,10 +4224,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,10 +4235,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,10 +4246,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,10 +4257,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,10 +4268,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,10 +4279,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,10 +4290,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,10 +4301,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,10 +4312,10 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,10 +4323,10 @@
         <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,10 +4334,10 @@
         <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,10 +4345,10 @@
         <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,10 +4356,10 @@
         <v>280</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,10 +4367,10 @@
         <v>280</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,10 +4378,10 @@
         <v>280</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,10 +4389,10 @@
         <v>283</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,10 +4400,43 @@
         <v>286</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="328">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -900,6 +900,15 @@
   </si>
   <si>
     <t xml:space="preserve">Estádio Municipal Parque do Sabiá-MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-29 19:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1105,13 +1114,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="74:74"/>
+      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="75:75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -3044,6 +3053,32 @@
       </c>
       <c r="H74" s="0" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3065,10 +3100,10 @@
   <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A122" activeCellId="1" sqref="74:74 A122"/>
+      <selection pane="topLeft" activeCell="A122" activeCellId="1" sqref="75:75 A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -3080,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,10 +3126,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3137,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,10 +3148,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,10 +3159,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,10 +3170,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,10 +3181,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,10 +3192,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,10 +3203,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,10 +3214,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,10 +3225,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,10 +3236,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,10 +3247,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,10 +3258,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,10 +3269,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,10 +3280,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,10 +3291,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3302,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,10 +3313,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,10 +3324,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,10 +3335,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,10 +3346,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,10 +3357,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,10 +3368,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,10 +3379,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,10 +3390,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,10 +3401,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,10 +3412,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,10 +3423,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,10 +3434,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,10 +3445,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,10 +3456,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,10 +3467,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,10 +3478,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,10 +3489,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,10 +3500,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +3511,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,10 +3522,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,10 +3533,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +3544,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,10 +3555,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,10 +3566,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,10 +3577,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,10 +3588,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,10 +3599,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,10 +3610,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,10 +3621,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,10 +3632,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,10 +3643,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,10 +3654,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +3665,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,10 +3676,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,10 +3687,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,10 +3698,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,10 +3709,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,10 +3720,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,10 +3731,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,10 +3742,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,10 +3753,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,10 +3764,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,10 +3775,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,10 +3786,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,10 +3797,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,10 +3808,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,10 +3819,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,10 +3830,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,10 +3841,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,10 +3852,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,10 +3863,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,10 +3874,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,10 +3885,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,10 +3896,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,10 +3907,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,10 +3918,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,10 +3929,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,10 +3940,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,10 +3951,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,10 +3962,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,10 +3973,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,10 +3984,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,10 +3995,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,10 +4006,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,10 +4017,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,10 +4028,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,10 +4039,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,10 +4050,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,10 +4061,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,10 +4072,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,10 +4083,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,10 +4094,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,10 +4105,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,10 +4116,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,10 +4127,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,10 +4138,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,10 +4149,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,10 +4160,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,10 +4171,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,10 +4182,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,10 +4193,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,10 +4204,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,10 +4215,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,10 +4226,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,10 +4237,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,10 +4248,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,10 +4259,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,10 +4270,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,10 +4281,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,10 +4292,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,10 +4303,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,10 +4314,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,10 +4325,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,10 +4336,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,10 +4347,10 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,10 +4358,10 @@
         <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,10 +4369,10 @@
         <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,10 +4380,10 @@
         <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,10 +4391,10 @@
         <v>280</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,10 +4402,10 @@
         <v>280</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,10 +4413,10 @@
         <v>280</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,10 +4424,10 @@
         <v>283</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,10 +4435,10 @@
         <v>286</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,10 +4446,10 @@
         <v>289</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,10 +4457,10 @@
         <v>289</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,10 +4468,10 @@
         <v>289</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="331">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -909,6 +909,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-11-29 19:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-03 16:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1114,13 +1123,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="75:75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -3078,6 +3087,32 @@
         <v>295</v>
       </c>
       <c r="H75" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H76" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3097,13 +3132,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A122" activeCellId="1" sqref="75:75 A122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -3115,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,10 +3161,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,10 +3172,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,10 +3183,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,10 +3194,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,10 +3205,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,10 +3216,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,10 +3227,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,10 +3238,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,10 +3249,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,10 +3260,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,10 +3271,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +3282,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +3293,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +3304,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,10 +3315,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,10 +3326,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3337,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,10 +3348,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,10 +3359,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,10 +3370,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,10 +3381,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,10 +3392,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +3403,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,10 +3414,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,10 +3425,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,10 +3436,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,10 +3447,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,10 +3458,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,10 +3469,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,10 +3480,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,10 +3491,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,10 +3502,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,10 +3513,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,10 +3524,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,10 +3535,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,10 +3546,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,10 +3557,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,10 +3568,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,10 +3579,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,10 +3590,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,10 +3601,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,10 +3612,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,10 +3623,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,10 +3634,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,10 +3645,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,10 +3656,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,10 +3667,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,10 +3678,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,10 +3689,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,10 +3700,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,10 +3711,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,10 +3722,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,10 +3733,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,10 +3744,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,10 +3755,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,10 +3766,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3777,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,10 +3788,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,10 +3799,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,10 +3810,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,10 +3821,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,10 +3832,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,10 +3843,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,10 +3854,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,10 +3865,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,10 +3876,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,10 +3887,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,10 +3898,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,10 +3909,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,10 +3920,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,10 +3931,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,10 +3942,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,10 +3953,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,10 +3964,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,10 +3975,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,10 +3986,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,10 +3997,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,10 +4008,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,10 +4019,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,10 +4030,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,10 +4041,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,10 +4052,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,10 +4063,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,10 +4074,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,10 +4085,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,10 +4096,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,10 +4107,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,10 +4118,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,10 +4129,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,10 +4140,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,10 +4151,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,10 +4162,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,10 +4173,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4149,10 +4184,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,10 +4195,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,10 +4206,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,10 +4217,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,10 +4228,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,10 +4239,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,10 +4250,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,10 +4261,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,10 +4272,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,10 +4283,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,10 +4294,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,10 +4305,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,10 +4316,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,10 +4327,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,10 +4338,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,10 +4349,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,10 +4360,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,10 +4371,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,10 +4382,10 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,10 +4393,10 @@
         <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,10 +4404,10 @@
         <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,10 +4415,10 @@
         <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,10 +4426,10 @@
         <v>280</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,10 +4437,10 @@
         <v>280</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,10 +4448,10 @@
         <v>280</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,10 +4459,10 @@
         <v>283</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,10 +4470,10 @@
         <v>286</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,10 +4481,10 @@
         <v>289</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4457,10 +4492,10 @@
         <v>289</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,10 +4503,32 @@
         <v>289</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches_FLA2023.xlsx
+++ b/data/matches_FLA2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="334">
   <si>
     <t xml:space="preserve">id_match</t>
   </si>
@@ -918,6 +918,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-12-03 16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeonato Brasileiro - Round 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-06 21:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">gols</t>
@@ -1123,13 +1132,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="77:77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.18"/>
@@ -3114,6 +3123,32 @@
       </c>
       <c r="H76" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3134,11 +3169,11 @@
   </sheetPr>
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A125" activeCellId="1" sqref="77:77 A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -3150,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,10 +3196,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,10 +3207,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,10 +3218,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,10 +3229,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,10 +3240,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,10 +3251,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,10 +3262,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,10 +3273,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,10 +3284,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,10 +3295,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,10 +3306,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,10 +3317,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,10 +3328,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,10 +3339,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,10 +3350,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,10 +3361,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,10 +3372,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,10 +3383,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,10 +3394,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3405,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,10 +3416,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,10 +3427,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,10 +3438,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,10 +3449,10 @@
         <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,10 +3460,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,10 +3471,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,10 +3482,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,10 +3493,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,10 +3504,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,10 +3515,10 @@
         <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,10 +3526,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,10 +3537,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,10 +3548,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,10 +3559,10 @@
         <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,10 +3570,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +3581,10 @@
         <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,10 +3592,10 @@
         <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,10 +3603,10 @@
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,10 +3614,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,10 +3625,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,10 +3636,10 @@
         <v>101</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,10 +3647,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,10 +3658,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,10 +3669,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,10 +3680,10 @@
         <v>109</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,10 +3691,10 @@
         <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,10 +3702,10 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,10 +3713,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,10 +3724,10 @@
         <v>114</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +3735,10 @@
         <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,10 +3746,10 @@
         <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,10 +3757,10 @@
         <v>114</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,10 +3768,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,10 +3779,10 @@
         <v>117</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,10 +3790,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,10 +3801,10 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3812,10 @@
         <v>125</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,10 +3823,10 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,10 +3834,10 @@
         <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,10 +3845,10 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,10 +3856,10 @@
         <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,10 +3867,10 @@
         <v>134</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,10 +3878,10 @@
         <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +3889,10 @@
         <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +3900,10 @@
         <v>150</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3876,10 +3911,10 @@
         <v>154</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,10 +3922,10 @@
         <v>154</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,10 +3933,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +3944,10 @@
         <v>157</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,10 +3955,10 @@
         <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,10 +3966,10 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,10 +3977,10 @@
         <v>160</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,10 +3988,10 @@
         <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,10 +3999,10 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,10 +4010,10 @@
         <v>163</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,10 +4021,10 @@
         <v>163</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,10 +4032,10 @@
         <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,10 +4043,10 @@
         <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,10 +4054,10 @@
         <v>172</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,10 +4065,10 @@
         <v>177</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,10 +4076,10 @@
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,10 +4087,10 @@
         <v>177</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,10 +4098,10 @@
         <v>177</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,10 +4109,10 @@
         <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,10 +4120,10 @@
         <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,10 +4131,10 @@
         <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,10 +4142,10 @@
         <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,10 +4153,10 @@
         <v>187</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,10 +4164,10 @@
         <v>191</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,10 +4175,10 @@
         <v>191</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,10 +4186,10 @@
         <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,10 +4197,10 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,10 +4208,10 @@
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,10 +4219,10 @@
         <v>206</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,10 +4230,10 @@
         <v>206</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,10 +4241,10 @@
         <v>211</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,10 +4252,10 @@
         <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4228,10 +4263,10 @@
         <v>224</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,10 +4274,10 @@
         <v>228</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,10 +4285,10 @@
         <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,10 +4296,10 @@
         <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,10 +4307,10 @@
         <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,10 +4318,10 @@
         <v>238</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,10 +4329,10 @@
         <v>238</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,10 +4340,10 @@
         <v>252</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,10 +4351,10 @@
         <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,10 +4362,10 @@
         <v>259</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,10 +4373,10 @@
         <v>263</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,10 +4384,10 @@
         <v>263</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,10 +4395,10 @@
         <v>267</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,10 +4406,10 @@
         <v>270</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,10 +4417,10 @@
         <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4393,10 +4428,10 @@
         <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,10 +4439,10 @@
         <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,10 +4450,10 @@
         <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,10 +4461,10 @@
         <v>280</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,10 +4472,10 @@
         <v>280</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,10 +4483,10 @@
         <v>280</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,10 +4494,10 @@
         <v>283</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,10 +4505,10 @@
         <v>286</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,10 +4516,10 @@
         <v>289</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,10 +4527,10 @@
         <v>289</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,10 +4538,10 @@
         <v>289</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,10 +4549,10 @@
         <v>296</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,10 +4560,10 @@
         <v>296</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
